--- a/project/xls/종교.xlsx
+++ b/project/xls/종교.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_Source\proj\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ProtestantEthicAnalyze\project\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
   <dimension ref="A1:L402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
